--- a/data/trans_dic/P17_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P17_R2-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2355123061239729</v>
+        <v>0.2385145552818628</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2075277684117401</v>
+        <v>0.2068355539109156</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1269516365170453</v>
+        <v>0.1257282912008295</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1181709282553517</v>
+        <v>0.1193897357796325</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2544597948562551</v>
+        <v>0.253427250890292</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2971006573920693</v>
+        <v>0.2968822684600763</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2288722055786157</v>
+        <v>0.2241866812889911</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1917597060273024</v>
+        <v>0.1940257229801962</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2578275964075339</v>
+        <v>0.2546899682500054</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2603426646223771</v>
+        <v>0.2553402912045434</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1820856803503057</v>
+        <v>0.1841385944423089</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1606369181824715</v>
+        <v>0.1624640940656078</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3169179441977894</v>
+        <v>0.3210801159843593</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2958546628892864</v>
+        <v>0.2939440213778977</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2058255285968534</v>
+        <v>0.1994760221012425</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1855903661508732</v>
+        <v>0.1878868705596405</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3556995860998738</v>
+        <v>0.3596744881455219</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4183760727654106</v>
+        <v>0.4126995999768325</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3284537068974923</v>
+        <v>0.3218484826951538</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2572117715497059</v>
+        <v>0.2560841464900886</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3223175765225764</v>
+        <v>0.3222569113159718</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3291261276990547</v>
+        <v>0.3275238818804782</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2408334458035024</v>
+        <v>0.2425728163315043</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2082471525220821</v>
+        <v>0.2079256944353143</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2267079482767011</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1725232255588578</v>
+        <v>0.1725232255588577</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3361416801101192</v>
@@ -833,7 +833,7 @@
         <v>0.2489150217014637</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2134165529703863</v>
+        <v>0.2134165529703862</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.220910558156687</v>
+        <v>0.2185270165228347</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2805302650120683</v>
+        <v>0.2799892836899905</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.184053905080875</v>
+        <v>0.1806854921814975</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1378094742082967</v>
+        <v>0.135600943127351</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2832794979660431</v>
+        <v>0.2877423906593789</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4253314832731834</v>
+        <v>0.4178009754489123</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2301329384520315</v>
+        <v>0.2233499640818793</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2214195268766384</v>
+        <v>0.222634410148443</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2667207103941422</v>
+        <v>0.2693871730929988</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3588791998496975</v>
+        <v>0.3598033117547556</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.218926252704166</v>
+        <v>0.2171675074157779</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1860142908592736</v>
+        <v>0.1875312574776088</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3162400556579767</v>
+        <v>0.3128717025126578</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3783215603127598</v>
+        <v>0.3783510326509058</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2703741650279497</v>
+        <v>0.2721857742210581</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2182232197286129</v>
+        <v>0.2142389939776129</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3829129161529773</v>
+        <v>0.3921855106605511</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5364454383509706</v>
+        <v>0.5313906216921891</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3284675192962798</v>
+        <v>0.3220051410908708</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2960192294901819</v>
+        <v>0.3020683712925849</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3361637117782255</v>
+        <v>0.3383209507855919</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4335595464061338</v>
+        <v>0.4341650689618132</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2852732976069249</v>
+        <v>0.283864456577951</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2435274600128544</v>
+        <v>0.2415853841326294</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2286251582091865</v>
+        <v>0.2270017898052209</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2237922847164794</v>
+        <v>0.2215493885511656</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1656256396468516</v>
+        <v>0.1651548510966244</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1301288492368802</v>
+        <v>0.1326457260087999</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3457593701762186</v>
+        <v>0.3377704509956735</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2622144903224426</v>
+        <v>0.2608414719728954</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1381850100371735</v>
+        <v>0.1365563631981747</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1735511120679001</v>
+        <v>0.1697528798556892</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.264677052293548</v>
+        <v>0.267844956865406</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2419880098360093</v>
+        <v>0.2425059177169386</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1666157201240026</v>
+        <v>0.1664375312373538</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.152639284658289</v>
+        <v>0.1525776571181723</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3058910699160705</v>
+        <v>0.30166072426673</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2912532104057226</v>
+        <v>0.2922790682723927</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.237927372619429</v>
+        <v>0.240863547570037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2057699714569984</v>
+        <v>0.2087222788106735</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4937571737666488</v>
+        <v>0.4852289029441311</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3758767831981875</v>
+        <v>0.3711385067269037</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2620284745510414</v>
+        <v>0.2576315021963485</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2859012195854072</v>
+        <v>0.2789526543577127</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.330798045297879</v>
+        <v>0.3330237850386695</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3054792792182124</v>
+        <v>0.3053287631666797</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2302169692835061</v>
+        <v>0.2270268057991568</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2131018340807095</v>
+        <v>0.2135232136278757</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2235507526991726</v>
+        <v>0.2197558166797004</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2483897250588829</v>
+        <v>0.2462032348608196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1795154600319996</v>
+        <v>0.1784286124646882</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1303369957845389</v>
+        <v>0.1288554506182454</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3115515342183693</v>
+        <v>0.3090413209752468</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3272644640601184</v>
+        <v>0.3254927251314427</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2242286930260175</v>
+        <v>0.2258682491517927</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2286438055607382</v>
+        <v>0.2295481077113493</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2620449381178713</v>
+        <v>0.2626389170201173</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2884937705130066</v>
+        <v>0.2879715168582219</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2062253724684767</v>
+        <v>0.2058881810097111</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1796997392542351</v>
+        <v>0.1761348697265043</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2696029626289532</v>
+        <v>0.2685910837984877</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3025390409592774</v>
+        <v>0.3031845177264588</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2279045131369054</v>
+        <v>0.2246178428450379</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.18164485156469</v>
+        <v>0.1783262392668844</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3851878602581323</v>
+        <v>0.3831498438210328</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3949393134009995</v>
+        <v>0.3975719618713128</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2855652127061655</v>
+        <v>0.2854059532680434</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.281465354605858</v>
+        <v>0.2829002209837575</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.304072096540256</v>
+        <v>0.3020019756003735</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3320006637482642</v>
+        <v>0.3337845045880664</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2460664016300189</v>
+        <v>0.2440374742787382</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2174617123707003</v>
+        <v>0.2134549661396989</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.1891993052052337</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1723163397338037</v>
+        <v>0.1723163397338036</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1615899652890232</v>
+        <v>0.1578624004872679</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2119189765142947</v>
+        <v>0.2143971606434736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1235077878846525</v>
+        <v>0.1251387078801952</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1090272127898703</v>
+        <v>0.1070467288352881</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2923370587588939</v>
+        <v>0.2899798530440524</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3031761029718988</v>
+        <v>0.3045088277462439</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1900902907691359</v>
+        <v>0.1913441023225769</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1746749547885041</v>
+        <v>0.1737496141095551</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2517877760255195</v>
+        <v>0.2535286204948644</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2757969785328755</v>
+        <v>0.2762058488157116</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1670113921000694</v>
+        <v>0.1700503792307751</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.152777226089632</v>
+        <v>0.1545028595993241</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.247551978832517</v>
+        <v>0.2439215630259883</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2907491892368156</v>
+        <v>0.2898192661767219</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1804352141324339</v>
+        <v>0.1845147254694717</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1757409764208526</v>
+        <v>0.1736127783803362</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3726666707597596</v>
+        <v>0.3737734789014994</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3760043966199961</v>
+        <v>0.3765579927089207</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2518922873924776</v>
+        <v>0.2529753708258136</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2242565320983293</v>
+        <v>0.2243071724693876</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3119294873322448</v>
+        <v>0.3097410907313796</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3290645092192594</v>
+        <v>0.3295888004535441</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2097152927758718</v>
+        <v>0.2128707035291703</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1942191840589843</v>
+        <v>0.1927011453428357</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.1072118641411953</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.05079498542256715</v>
+        <v>0.05079498542256716</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2562898068654472</v>
@@ -1377,7 +1377,7 @@
         <v>0.1765041718352239</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.09460049502630699</v>
+        <v>0.09460049502630705</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0427740288602577</v>
+        <v>0.04474463913515151</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02931245572258724</v>
+        <v>0.02997664641739744</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07244184085282029</v>
+        <v>0.07375699822087886</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01328002257978957</v>
+        <v>0.01460524445893206</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2355968118003667</v>
+        <v>0.2294218925171651</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2245470213967458</v>
+        <v>0.2281010984660597</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.170406833871233</v>
+        <v>0.1695906399104339</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.08801802823757589</v>
+        <v>0.08734818549647203</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1987666921986031</v>
+        <v>0.200621879158788</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1947408057634199</v>
+        <v>0.1937931568317079</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1576956085976735</v>
+        <v>0.1574811574268848</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.07763071075186763</v>
+        <v>0.0767071673784228</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1064467436121485</v>
+        <v>0.1037483577382266</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08385166064155733</v>
+        <v>0.0849401234514396</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1454210608727579</v>
+        <v>0.1519015902932658</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1109289427966047</v>
+        <v>0.1172270667140022</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2814726468467973</v>
+        <v>0.2793237812241341</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2781680925301137</v>
+        <v>0.2845741426522746</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2203440405416927</v>
+        <v>0.2205632621785768</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1270327684615008</v>
+        <v>0.1282243535464121</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2403753144076299</v>
+        <v>0.2417037157175699</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2379931615931557</v>
+        <v>0.2378587729252167</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1987443829092824</v>
+        <v>0.2013271416542632</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1139340297859897</v>
+        <v>0.1141911473416477</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2198105192243401</v>
+        <v>0.2201763997169769</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2382345890487382</v>
+        <v>0.2385857059781918</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1684183036747792</v>
+        <v>0.1678300106426859</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1337337121452755</v>
+        <v>0.1342199443418578</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2946522942680423</v>
+        <v>0.2918701083496594</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3146213304318092</v>
+        <v>0.3128122014771955</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2160737070221358</v>
+        <v>0.2158607560084126</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1884459236451445</v>
+        <v>0.189983986640756</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2608907715969741</v>
+        <v>0.2613195026849616</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2821570737904389</v>
+        <v>0.2808722311084218</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1968089193350163</v>
+        <v>0.1962069628836279</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1657573186365022</v>
+        <v>0.1655771759259486</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2499896496246203</v>
+        <v>0.2495026871510677</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2693050900874496</v>
+        <v>0.2682304412832291</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1949790041811597</v>
+        <v>0.1959444853767092</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1619721159626307</v>
+        <v>0.1608246645791538</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3252576853313028</v>
+        <v>0.3244372752447822</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3478992942435604</v>
+        <v>0.3471818409686017</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2451446925078438</v>
+        <v>0.2444286316081036</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.213289191826722</v>
+        <v>0.2144833810745669</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2836529148597396</v>
+        <v>0.283517894144323</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3044851533581628</v>
+        <v>0.303905235993191</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2168354645386877</v>
+        <v>0.2165393912183749</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1842678291204225</v>
+        <v>0.1837614414065872</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>111226</v>
+        <v>112644</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>90733</v>
+        <v>90431</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>54326</v>
+        <v>53803</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>64819</v>
+        <v>65488</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>78038</v>
+        <v>77721</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>92794</v>
+        <v>92726</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>79431</v>
+        <v>77805</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>93250</v>
+        <v>94352</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>200836</v>
+        <v>198392</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>195138</v>
+        <v>191389</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>141113</v>
+        <v>142704</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>166229</v>
+        <v>168120</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>149672</v>
+        <v>151637</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>129351</v>
+        <v>128516</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>88078</v>
+        <v>85361</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>101801</v>
+        <v>103060</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>109086</v>
+        <v>110305</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>130672</v>
+        <v>128899</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>113992</v>
+        <v>111699</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>125079</v>
+        <v>124531</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>251070</v>
+        <v>251023</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>246694</v>
+        <v>245493</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>186642</v>
+        <v>187990</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>215497</v>
+        <v>215164</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>80685</v>
+        <v>79814</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>117485</v>
+        <v>117259</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>69237</v>
+        <v>67970</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>66591</v>
+        <v>65524</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>105342</v>
+        <v>107001</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>143767</v>
+        <v>141221</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>85441</v>
+        <v>82923</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>93476</v>
+        <v>93989</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>196600</v>
+        <v>198566</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>271603</v>
+        <v>272302</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>163636</v>
+        <v>162321</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>168413</v>
+        <v>169787</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>115503</v>
+        <v>114272</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>158440</v>
+        <v>158452</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>101709</v>
+        <v>102391</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>105448</v>
+        <v>103523</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>142392</v>
+        <v>145840</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>181324</v>
+        <v>179616</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>121949</v>
+        <v>119550</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>124970</v>
+        <v>127523</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>247787</v>
+        <v>249377</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>328121</v>
+        <v>328580</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>213227</v>
+        <v>212174</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>220485</v>
+        <v>218726</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>124004</v>
+        <v>123123</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>140858</v>
+        <v>139447</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>86442</v>
+        <v>86197</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>61091</v>
+        <v>62273</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>58012</v>
+        <v>56672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>68210</v>
+        <v>67852</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>22806</v>
+        <v>22537</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>32540</v>
+        <v>31828</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>187966</v>
+        <v>190216</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>215259</v>
+        <v>215720</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>114457</v>
+        <v>114335</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>100278</v>
+        <v>100238</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>165912</v>
+        <v>163617</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>183319</v>
+        <v>183965</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>124178</v>
+        <v>125710</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>96602</v>
+        <v>97988</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>82844</v>
+        <v>81413</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>97776</v>
+        <v>96544</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>43245</v>
+        <v>42519</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>53606</v>
+        <v>52303</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>234923</v>
+        <v>236504</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>271737</v>
+        <v>271603</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>158148</v>
+        <v>155957</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>140000</v>
+        <v>140277</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>275882</v>
+        <v>271199</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>287623</v>
+        <v>285091</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>206167</v>
+        <v>204919</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>147243</v>
+        <v>145569</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>222537</v>
+        <v>220744</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>250900</v>
+        <v>249541</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>183997</v>
+        <v>185343</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>196579</v>
+        <v>197357</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>510562</v>
+        <v>511719</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>555237</v>
+        <v>554232</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>406066</v>
+        <v>405402</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>357508</v>
+        <v>350415</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>332715</v>
+        <v>331466</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>350325</v>
+        <v>351073</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>261740</v>
+        <v>257965</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>205206</v>
+        <v>201457</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>275134</v>
+        <v>273678</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>302783</v>
+        <v>304801</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>234329</v>
+        <v>234198</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>241993</v>
+        <v>243227</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>592447</v>
+        <v>588413</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>638971</v>
+        <v>642404</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>484515</v>
+        <v>480520</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>432634</v>
+        <v>424663</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>56488</v>
+        <v>55185</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>107984</v>
+        <v>109247</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>76258</v>
+        <v>77265</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>61492</v>
+        <v>60375</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>166267</v>
+        <v>164927</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>230554</v>
+        <v>231568</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>139784</v>
+        <v>140706</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>144761</v>
+        <v>143994</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>231224</v>
+        <v>232822</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>350267</v>
+        <v>350787</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>225932</v>
+        <v>230043</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>212781</v>
+        <v>215184</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>86538</v>
+        <v>85269</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>148153</v>
+        <v>147679</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>111408</v>
+        <v>113926</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>99119</v>
+        <v>97919</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>211955</v>
+        <v>212584</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>285937</v>
+        <v>286358</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>185231</v>
+        <v>186027</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>185852</v>
+        <v>185894</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>286454</v>
+        <v>284444</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>417918</v>
+        <v>418584</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>283702</v>
+        <v>287970</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>270499</v>
+        <v>268385</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>12713</v>
+        <v>13299</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7823</v>
+        <v>8000</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>20644</v>
+        <v>21019</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3150</v>
+        <v>3465</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>293754</v>
+        <v>286055</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>249101</v>
+        <v>253044</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>183903</v>
+        <v>183023</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>74061</v>
+        <v>73497</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>306908</v>
+        <v>309773</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>268009</v>
+        <v>266705</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>215125</v>
+        <v>214832</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>83737</v>
+        <v>82741</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>31637</v>
+        <v>30835</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>22378</v>
+        <v>22669</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>41441</v>
+        <v>43288</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>26315</v>
+        <v>27810</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>350954</v>
+        <v>348275</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>308586</v>
+        <v>315693</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>237796</v>
+        <v>238032</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>106889</v>
+        <v>107892</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>371155</v>
+        <v>373206</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>327534</v>
+        <v>327349</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>271122</v>
+        <v>274646</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>122896</v>
+        <v>123173</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>716754</v>
+        <v>717947</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>814717</v>
+        <v>815918</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>568731</v>
+        <v>566744</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>458993</v>
+        <v>460662</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>994810</v>
+        <v>985417</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1115945</v>
+        <v>1109528</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>760255</v>
+        <v>759505</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>683284</v>
+        <v>688861</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1731530</v>
+        <v>1734376</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1965719</v>
+        <v>1956768</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1357075</v>
+        <v>1352924</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1169921</v>
+        <v>1168649</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>815161</v>
+        <v>813573</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>920972</v>
+        <v>917297</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>658424</v>
+        <v>661684</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>555911</v>
+        <v>551973</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1098140</v>
+        <v>1095370</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1233980</v>
+        <v>1231435</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>862541</v>
+        <v>860021</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>773363</v>
+        <v>777693</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1882603</v>
+        <v>1881707</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2121273</v>
+        <v>2117233</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1495166</v>
+        <v>1493124</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1300568</v>
+        <v>1296994</v>
       </c>
     </row>
     <row r="32">
